--- a/Scripts/python/SourceTables/Artifacts.xlsx
+++ b/Scripts/python/SourceTables/Artifacts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\vscodespace\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Obsidian\Perfect_World_Mobile_RU_Database\Scripts\python\SourceTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="GodWeaponBase_JD" localSheetId="0">Лист1!$A$1:$H$131</definedName>
+    <definedName name="GodWeaponBase_JD" localSheetId="0">Лист1!$A$1:$H$130</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -145,36 +145,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="1270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1684" uniqueCount="1262">
   <si>
     <t>Id</t>
   </si>
   <si>
     <t>Desc</t>
-  </si>
-  <si>
-    <t>#ID 神器背包存储上限200</t>
-  </si>
-  <si>
-    <t>程序不读</t>
-  </si>
-  <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>来源描述字典id</t>
-  </si>
-  <si>
-    <t>主动技能id</t>
-  </si>
-  <si>
-    <t>特技id1</t>
-  </si>
-  <si>
-    <t>特技id2</t>
-  </si>
-  <si>
-    <t>特技id3</t>
   </si>
   <si>
     <t>#1</t>
@@ -4494,10 +4470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD131"/>
+  <dimension ref="A1:XFD130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C142" sqref="C142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4519,43 +4495,43 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="D1" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E1" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="F1" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="G1" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="H1" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="I1" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="J1" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="K1" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="L1" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="M1" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="N1" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4563,39 +4539,57 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>840</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="F2" s="10">
+        <v>-1</v>
+      </c>
+      <c r="G2" s="10">
+        <v>-1</v>
+      </c>
+      <c r="H2" s="10">
+        <v>-1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>612</v>
+      </c>
+      <c r="J2" t="s">
+        <v>612</v>
+      </c>
+      <c r="K2" t="s">
+        <v>612</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
       <c r="C3" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="F3" s="10">
         <v>-1</v>
@@ -4607,39 +4601,39 @@
         <v>-1</v>
       </c>
       <c r="I3" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="J3" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="K3" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="F4" s="10">
         <v>-1</v>
@@ -4651,39 +4645,39 @@
         <v>-1</v>
       </c>
       <c r="I4" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="J4" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="K4" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="F5" s="10">
         <v>-1</v>
@@ -4695,39 +4689,39 @@
         <v>-1</v>
       </c>
       <c r="I5" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="J5" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="K5" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="F6" s="10">
         <v>-1</v>
@@ -4739,39 +4733,39 @@
         <v>-1</v>
       </c>
       <c r="I6" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="J6" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="K6" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="F7" s="10">
         <v>-1</v>
@@ -4783,39 +4777,39 @@
         <v>-1</v>
       </c>
       <c r="I7" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="J7" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="K7" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="F8" s="10">
         <v>-1</v>
@@ -4827,39 +4821,39 @@
         <v>-1</v>
       </c>
       <c r="I8" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="J8" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="K8" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="F9" s="10">
         <v>-1</v>
@@ -4871,39 +4865,39 @@
         <v>-1</v>
       </c>
       <c r="I9" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="J9" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="K9" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="F10" s="10">
         <v>-1</v>
@@ -4915,39 +4909,39 @@
         <v>-1</v>
       </c>
       <c r="I10" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="J10" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="K10" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="F11" s="10">
         <v>-1</v>
@@ -4959,324 +4953,324 @@
         <v>-1</v>
       </c>
       <c r="I11" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="J11" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="K11" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="225" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>268</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>840</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>873</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>874</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>875</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="150" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>269</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>840</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>1151</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>876</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>877</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>878</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="150" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>840</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>879</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>880</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>881</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="180" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>28</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C15" t="s">
         <v>29</v>
       </c>
-      <c r="C12" t="s">
-        <v>275</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>848</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="F12" s="10">
-        <v>-1</v>
-      </c>
-      <c r="G12" s="10">
-        <v>-1</v>
-      </c>
-      <c r="H12" s="10">
-        <v>-1</v>
-      </c>
-      <c r="I12" t="s">
-        <v>620</v>
-      </c>
-      <c r="J12" t="s">
-        <v>620</v>
-      </c>
-      <c r="K12" t="s">
-        <v>620</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="330" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="D15" s="10" t="s">
+        <v>841</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>882</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>883</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>884</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>30</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C16" t="s">
         <v>31</v>
       </c>
-      <c r="C13" t="s">
-        <v>276</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>848</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>1158</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>881</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>882</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>883</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="360" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="D16" s="10" t="s">
+        <v>840</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>885</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>886</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>887</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
         <v>32</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C17" t="s">
         <v>33</v>
       </c>
-      <c r="C14" t="s">
-        <v>277</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>848</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>1159</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>884</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>885</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>886</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="390" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="D17" s="10" t="s">
+        <v>840</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>888</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>889</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>890</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="210" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
         <v>34</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C18" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>848</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>1160</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>887</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>888</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>889</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="300" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>849</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>1161</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>890</v>
-      </c>
-      <c r="G16" s="10" t="s">
+      <c r="D18" s="10" t="s">
+        <v>842</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F18" s="10" t="s">
         <v>891</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="G18" s="10" t="s">
         <v>892</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="315" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>848</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>1162</v>
-      </c>
-      <c r="F17" s="10" t="s">
+      <c r="H18" s="10" t="s">
         <v>893</v>
       </c>
-      <c r="G17" s="10" t="s">
-        <v>894</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>895</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>669</v>
-      </c>
-      <c r="N17" s="6" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="375" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>848</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>1163</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>896</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>897</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>898</v>
-      </c>
       <c r="I18" s="1" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>671</v>
@@ -5285,5282 +5279,5238 @@
         <v>672</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="195" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>894</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>895</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>896</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="285" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>843</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>897</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>898</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>899</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>842</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>900</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>901</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>902</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="2"/>
+    </row>
+    <row r="22" spans="1:17" ht="150" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
         <v>42</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C22" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>850</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>1164</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>899</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>900</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>901</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>679</v>
-      </c>
-      <c r="N19" s="6" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>479</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>1165</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>902</v>
-      </c>
-      <c r="G20" s="10" t="s">
+      <c r="D22" s="10" t="s">
+        <v>842</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F22" s="10" t="s">
         <v>903</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="G22" s="10" t="s">
         <v>904</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>798</v>
-      </c>
-      <c r="N20" s="6" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>851</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>1166</v>
-      </c>
-      <c r="F21" s="10" t="s">
+      <c r="H22" s="10" t="s">
         <v>905</v>
       </c>
-      <c r="G21" s="10" t="s">
-        <v>906</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>907</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="J21" s="1" t="s">
+      <c r="I22" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="K22" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="L21" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="N21" s="7" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>850</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>1167</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>908</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>909</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>910</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>570</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>571</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>493</v>
-      </c>
       <c r="L22" s="2" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>750</v>
+        <v>691</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="2"/>
     </row>
-    <row r="23" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="150" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>844</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>906</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>907</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>908</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="Q23" s="2"/>
+    </row>
+    <row r="24" spans="1:17" ht="180" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>845</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>909</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>910</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>911</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="2"/>
+    </row>
+    <row r="25" spans="1:17" ht="270" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>912</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>913</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>914</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="105" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
         <v>50</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C26" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="10" t="s">
-        <v>850</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>1168</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>911</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>912</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>913</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="K23" s="1" t="s">
+      <c r="D26" s="10" t="s">
+        <v>846</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>915</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>916</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>917</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="2"/>
+    </row>
+    <row r="27" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" t="s">
+        <v>280</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>847</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>918</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>919</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>920</v>
+      </c>
+      <c r="I27" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="L23" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>699</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="2"/>
-    </row>
-    <row r="24" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>852</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>1169</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>914</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>915</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>916</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>686</v>
-      </c>
-      <c r="N24" s="7" t="s">
-        <v>687</v>
-      </c>
-      <c r="Q24" s="2"/>
-    </row>
-    <row r="25" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>853</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>1170</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>917</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>918</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>919</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>754</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="2"/>
-    </row>
-    <row r="26" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>1171</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>1172</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>920</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>921</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>922</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="N26" s="7" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>854</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>1173</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>923</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>924</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>925</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>315</v>
+      <c r="J27" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>299</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>735</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>736</v>
+        <v>612</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="2"/>
     </row>
-    <row r="28" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>60</v>
+    <row r="28" spans="1:17" ht="375" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>270</v>
       </c>
       <c r="C28" t="s">
-        <v>288</v>
+        <v>54</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>1174</v>
+        <v>1167</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>928</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>307</v>
+        <v>923</v>
+      </c>
+      <c r="I28" t="s">
+        <v>469</v>
+      </c>
+      <c r="J28" t="s">
+        <v>385</v>
+      </c>
+      <c r="K28" t="s">
+        <v>301</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>620</v>
+        <v>631</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>713</v>
       </c>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="2"/>
     </row>
-    <row r="29" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="135" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>278</v>
+        <v>55</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>1175</v>
+        <v>1168</v>
       </c>
       <c r="F29" s="10" t="s">
+        <v>924</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>925</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>926</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="N29" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q29" s="2"/>
+    </row>
+    <row r="30" spans="1:17" ht="165" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>842</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>927</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>928</v>
+      </c>
+      <c r="H30" s="10" t="s">
         <v>929</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="I30" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="2"/>
+    </row>
+    <row r="31" spans="1:17" ht="240" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>842</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>1170</v>
+      </c>
+      <c r="F31" s="10" t="s">
         <v>930</v>
       </c>
-      <c r="H29" s="10" t="s">
+      <c r="G31" s="10" t="s">
         <v>931</v>
       </c>
-      <c r="I29" t="s">
-        <v>477</v>
-      </c>
-      <c r="J29" t="s">
-        <v>393</v>
-      </c>
-      <c r="K29" t="s">
-        <v>309</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>711</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="2"/>
-    </row>
-    <row r="30" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" t="s">
-        <v>64</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>856</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>1176</v>
-      </c>
-      <c r="F30" s="10" t="s">
+      <c r="H31" s="10" t="s">
         <v>932</v>
       </c>
-      <c r="G30" s="10" t="s">
-        <v>933</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>934</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>688</v>
-      </c>
-      <c r="N30" s="7" t="s">
-        <v>690</v>
-      </c>
-      <c r="Q30" s="2"/>
-    </row>
-    <row r="31" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" t="s">
-        <v>66</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>850</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>1177</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>935</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>936</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>937</v>
-      </c>
       <c r="I31" s="1" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>651</v>
+        <v>634</v>
       </c>
       <c r="M31" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="N31" s="1" t="s">
         <v>738</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>739</v>
       </c>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="2"/>
     </row>
-    <row r="32" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="150" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>850</v>
+        <v>471</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>1178</v>
+        <v>1171</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>745</v>
+        <v>813</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>746</v>
+        <v>814</v>
       </c>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="2"/>
     </row>
-    <row r="33" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="120" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C33" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>479</v>
+        <v>842</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>1179</v>
+        <v>936</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>481</v>
+        <v>550</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>397</v>
+        <v>549</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>313</v>
+        <v>548</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>821</v>
+        <v>725</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>822</v>
+        <v>736</v>
       </c>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="2"/>
     </row>
-    <row r="34" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="165" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C34" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>944</v>
+        <v>1172</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>558</v>
+        <v>477</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>557</v>
+        <v>393</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>556</v>
+        <v>309</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>733</v>
+        <v>750</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>744</v>
+        <v>704</v>
       </c>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="2"/>
     </row>
-    <row r="35" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="210" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>1180</v>
+        <v>1173</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>712</v>
+        <v>762</v>
       </c>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="2"/>
     </row>
-    <row r="36" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="285" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C36" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>769</v>
+        <v>748</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>770</v>
+        <v>749</v>
       </c>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="2"/>
     </row>
-    <row r="37" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="240" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C37" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>1182</v>
+        <v>1175</v>
       </c>
       <c r="F37" s="10" t="s">
+        <v>949</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>950</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>951</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="N37" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="Q37" s="2"/>
+    </row>
+    <row r="38" spans="1:17" ht="225" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>952</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>953</v>
+      </c>
+      <c r="H38" s="10" t="s">
         <v>954</v>
       </c>
-      <c r="G37" s="10" t="s">
+      <c r="I38" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="2"/>
+    </row>
+    <row r="39" spans="1:17" ht="135" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>842</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F39" s="10" t="s">
         <v>955</v>
       </c>
-      <c r="H37" s="10" t="s">
+      <c r="G39" s="10" t="s">
         <v>956</v>
       </c>
-      <c r="I37" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="M37" s="3" t="s">
-        <v>756</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="2"/>
-    </row>
-    <row r="38" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>79</v>
-      </c>
-      <c r="C38" t="s">
-        <v>80</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>857</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>1183</v>
-      </c>
-      <c r="F38" s="10" t="s">
+      <c r="H39" s="10" t="s">
         <v>957</v>
       </c>
-      <c r="G38" s="10" t="s">
-        <v>958</v>
-      </c>
-      <c r="H38" s="10" t="s">
-        <v>959</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="M38" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="N38" s="7" t="s">
-        <v>692</v>
-      </c>
-      <c r="Q38" s="2"/>
-    </row>
-    <row r="39" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>81</v>
-      </c>
-      <c r="C39" t="s">
-        <v>82</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>479</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>1184</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>960</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>961</v>
-      </c>
-      <c r="H39" s="10" t="s">
-        <v>962</v>
-      </c>
       <c r="I39" s="1" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>727</v>
+        <v>753</v>
       </c>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="2"/>
     </row>
-    <row r="40" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" ht="225" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C40" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="F40" s="10" t="s">
+        <v>958</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>959</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>960</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="N40" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="Q40" s="2"/>
+    </row>
+    <row r="41" spans="1:17" ht="135" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>961</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>962</v>
+      </c>
+      <c r="H41" s="10" t="s">
         <v>963</v>
       </c>
-      <c r="G40" s="10" t="s">
+      <c r="I41" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="2"/>
+    </row>
+    <row r="42" spans="1:17" ht="150" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>842</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F42" s="10" t="s">
         <v>964</v>
       </c>
-      <c r="H40" s="10" t="s">
+      <c r="G42" s="10" t="s">
         <v>965</v>
       </c>
-      <c r="I40" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="M40" s="3" t="s">
-        <v>760</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="2"/>
-    </row>
-    <row r="41" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>85</v>
-      </c>
-      <c r="C41" t="s">
-        <v>86</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>856</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>1186</v>
-      </c>
-      <c r="F41" s="10" t="s">
+      <c r="H42" s="10" t="s">
         <v>966</v>
       </c>
-      <c r="G41" s="10" t="s">
-        <v>967</v>
-      </c>
-      <c r="H41" s="10" t="s">
-        <v>968</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="N41" s="7" t="s">
-        <v>694</v>
-      </c>
-      <c r="Q41" s="2"/>
-    </row>
-    <row r="42" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>87</v>
-      </c>
-      <c r="C42" t="s">
-        <v>88</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>479</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>1187</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>969</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>970</v>
-      </c>
-      <c r="H42" s="10" t="s">
-        <v>971</v>
-      </c>
       <c r="I42" s="1" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>743</v>
+        <v>756</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>744</v>
+        <v>757</v>
       </c>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="2"/>
     </row>
-    <row r="43" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" ht="120" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C43" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>1188</v>
+        <v>1181</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>409</v>
+        <v>265</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>765</v>
+        <v>684</v>
       </c>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="2"/>
     </row>
-    <row r="44" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" ht="195" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C44" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>850</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>1189</v>
+        <v>1182</v>
       </c>
       <c r="F44" s="10" t="s">
+        <v>970</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>971</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>972</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="N44" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="Q44" s="2"/>
+    </row>
+    <row r="45" spans="1:17" ht="135" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" t="s">
+        <v>88</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>851</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>1183</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>973</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>974</v>
+      </c>
+      <c r="H45" s="10" t="s">
         <v>975</v>
       </c>
-      <c r="G44" s="10" t="s">
+      <c r="I45" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="N45" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q45" s="2"/>
+    </row>
+    <row r="46" spans="1:17" ht="132" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" t="s">
+        <v>90</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>848</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F46" s="10" t="s">
         <v>976</v>
       </c>
-      <c r="H44" s="10" t="s">
+      <c r="G46" s="10" t="s">
         <v>977</v>
       </c>
-      <c r="I44" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>766</v>
-      </c>
-      <c r="N44" s="1" t="s">
+      <c r="H46" s="10" t="s">
+        <v>978</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="N46" s="7" t="s">
         <v>692</v>
       </c>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="2"/>
-    </row>
-    <row r="45" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="Q46" s="2"/>
+    </row>
+    <row r="47" spans="1:17" ht="135" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>852</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>979</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>980</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>981</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="N47" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="Q47" s="2"/>
+    </row>
+    <row r="48" spans="1:17" ht="105" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
         <v>93</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C48" t="s">
         <v>94</v>
       </c>
-      <c r="D45" s="10" t="s">
-        <v>858</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>1190</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>978</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>979</v>
-      </c>
-      <c r="H45" s="10" t="s">
-        <v>980</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="L45" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="M45" s="3" t="s">
+      <c r="D48" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>982</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>983</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>984</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="M48" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="N45" s="7" t="s">
+      <c r="N48" s="7" t="s">
         <v>696</v>
       </c>
-      <c r="Q45" s="2"/>
-    </row>
-    <row r="46" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="Q48" s="2"/>
+    </row>
+    <row r="49" spans="1:17" ht="165" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
         <v>95</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C49" t="s">
         <v>96</v>
       </c>
-      <c r="D46" s="10" t="s">
-        <v>859</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>1191</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>981</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>982</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>983</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="L46" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>697</v>
-      </c>
-      <c r="N46" s="7" t="s">
-        <v>698</v>
-      </c>
-      <c r="Q46" s="2"/>
-    </row>
-    <row r="47" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>45</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="D49" s="10" t="s">
+        <v>845</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>985</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>986</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>987</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="2"/>
+    </row>
+    <row r="50" spans="1:17" ht="105" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
         <v>97</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C50" t="s">
         <v>98</v>
       </c>
-      <c r="D47" s="10" t="s">
-        <v>856</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>1192</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>984</v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>985</v>
-      </c>
-      <c r="H47" s="10" t="s">
-        <v>986</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>699</v>
-      </c>
-      <c r="N47" s="7" t="s">
-        <v>700</v>
-      </c>
-      <c r="Q47" s="2"/>
-    </row>
-    <row r="48" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>46</v>
-      </c>
-      <c r="B48" t="s">
-        <v>99</v>
-      </c>
-      <c r="C48" t="s">
-        <v>100</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>860</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>1193</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>987</v>
-      </c>
-      <c r="G48" s="10" t="s">
+      <c r="D50" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F50" s="10" t="s">
         <v>988</v>
       </c>
-      <c r="H48" s="10" t="s">
+      <c r="G50" s="10" t="s">
         <v>989</v>
       </c>
-      <c r="I48" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L48" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>701</v>
-      </c>
-      <c r="N48" s="7" t="s">
-        <v>702</v>
-      </c>
-      <c r="Q48" s="2"/>
-    </row>
-    <row r="49" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>47</v>
-      </c>
-      <c r="B49" t="s">
-        <v>101</v>
-      </c>
-      <c r="C49" t="s">
-        <v>102</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>861</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F49" s="10" t="s">
+      <c r="H50" s="10" t="s">
         <v>990</v>
       </c>
-      <c r="G49" s="10" t="s">
-        <v>991</v>
-      </c>
-      <c r="H49" s="10" t="s">
-        <v>992</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="L49" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>703</v>
-      </c>
-      <c r="N49" s="7" t="s">
-        <v>704</v>
-      </c>
-      <c r="Q49" s="2"/>
-    </row>
-    <row r="50" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>48</v>
-      </c>
-      <c r="B50" t="s">
-        <v>103</v>
-      </c>
-      <c r="C50" t="s">
-        <v>104</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>853</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>1195</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>993</v>
-      </c>
-      <c r="G50" s="10" t="s">
-        <v>994</v>
-      </c>
-      <c r="H50" s="10" t="s">
-        <v>995</v>
-      </c>
       <c r="I50" s="1" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
       <c r="Q50" s="2"/>
     </row>
-    <row r="51" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" ht="105" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C51" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>1196</v>
+        <v>1189</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>752</v>
+        <v>786</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>753</v>
+        <v>787</v>
       </c>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="2"/>
     </row>
-    <row r="52" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" ht="135" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C52" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>1197</v>
+        <v>1190</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>502</v>
+        <v>313</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>795</v>
+        <v>774</v>
       </c>
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="2"/>
     </row>
-    <row r="53" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" ht="90" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C53" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>1198</v>
+        <v>1191</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>321</v>
+        <v>495</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>333</v>
+        <v>123</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>793</v>
+        <v>759</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>782</v>
+        <v>760</v>
       </c>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
       <c r="Q53" s="2"/>
     </row>
-    <row r="54" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" ht="105" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C54" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>479</v>
+        <v>845</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>1199</v>
+        <v>1192</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>1004</v>
+        <v>988</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>131</v>
+        <v>326</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>767</v>
+        <v>732</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>768</v>
+        <v>733</v>
       </c>
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
       <c r="Q54" s="2"/>
     </row>
-    <row r="55" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C55" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>853</v>
+        <v>471</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>1200</v>
+        <v>1193</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>996</v>
+        <v>1001</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>740</v>
+        <v>725</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>741</v>
+        <v>726</v>
       </c>
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
       <c r="Q55" s="2"/>
     </row>
-    <row r="56" spans="1:17" ht="315" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" ht="120" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C56" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>479</v>
+        <v>854</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>1201</v>
+        <v>1194</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>733</v>
+        <v>703</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>734</v>
+        <v>704</v>
       </c>
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
       <c r="Q56" s="2"/>
     </row>
-    <row r="57" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" ht="120" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>117</v>
+        <v>271</v>
       </c>
       <c r="C57" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>862</v>
+        <v>471</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>1202</v>
+        <v>1195</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>1014</v>
+        <v>990</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>506</v>
+        <v>333</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>711</v>
+        <v>746</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>712</v>
+        <v>792</v>
       </c>
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
       <c r="Q57" s="2"/>
     </row>
-    <row r="58" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" ht="105" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>279</v>
+        <v>112</v>
       </c>
       <c r="C58" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>1203</v>
+        <v>1196</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>998</v>
+        <v>1011</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>341</v>
+        <v>499</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>754</v>
+        <v>783</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>800</v>
+        <v>784</v>
       </c>
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
       <c r="Q58" s="2"/>
     </row>
-    <row r="59" spans="1:17" ht="315" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" ht="120" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C59" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>479</v>
+        <v>842</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>507</v>
+        <v>327</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>791</v>
+        <v>763</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>792</v>
+        <v>764</v>
       </c>
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
       <c r="Q59" s="2"/>
     </row>
-    <row r="60" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" ht="135" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C60" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>1205</v>
+        <v>1198</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>335</v>
+        <v>500</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>771</v>
+        <v>707</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>772</v>
+        <v>826</v>
       </c>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
       <c r="Q60" s="2"/>
     </row>
-    <row r="61" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C61" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>863</v>
+        <v>471</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>1024</v>
+        <v>990</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>638</v>
+        <v>647</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>715</v>
+        <v>773</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>834</v>
+        <v>774</v>
       </c>
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
       <c r="Q61" s="2"/>
     </row>
-    <row r="62" spans="1:17" ht="345" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" ht="132" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C62" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>479</v>
+        <v>856</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>1207</v>
+        <v>1200</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>1026</v>
+        <v>1001</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>998</v>
+        <v>1020</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>655</v>
+        <v>639</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>781</v>
+        <v>711</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>782</v>
+        <v>712</v>
       </c>
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
       <c r="Q62" s="2"/>
     </row>
-    <row r="63" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" ht="150" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C63" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>864</v>
+        <v>471</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>1208</v>
+        <v>1201</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>1009</v>
+        <v>991</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>647</v>
+        <v>630</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>719</v>
+        <v>767</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>720</v>
+        <v>768</v>
       </c>
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
       <c r="Q63" s="2"/>
     </row>
-    <row r="64" spans="1:17" ht="375" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" ht="99" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C64" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>479</v>
+        <v>842</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>999</v>
+        <v>988</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>775</v>
+        <v>729</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>776</v>
+        <v>722</v>
       </c>
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
       <c r="Q64" s="2"/>
     </row>
-    <row r="65" spans="1:17" ht="330" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" ht="120" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C65" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>850</v>
+        <v>857</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>1210</v>
+        <v>1203</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="G65" s="10" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H65" s="10" t="s">
+        <v>990</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="M65" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="N65" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="Q65" s="2"/>
+    </row>
+    <row r="66" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>128</v>
+      </c>
+      <c r="C66" t="s">
+        <v>129</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>1027</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>1028</v>
+      </c>
+      <c r="H66" s="10" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="2"/>
+    </row>
+    <row r="67" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>130</v>
+      </c>
+      <c r="C67" t="s">
+        <v>131</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>854</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>1030</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>1031</v>
+      </c>
+      <c r="H67" s="10" t="s">
         <v>1032</v>
       </c>
-      <c r="H65" s="10" t="s">
-        <v>1033</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="L65" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="M65" s="3" t="s">
-        <v>737</v>
-      </c>
-      <c r="N65" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="O65" s="1"/>
-      <c r="P65" s="1"/>
-      <c r="Q65" s="2"/>
-    </row>
-    <row r="66" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>64</v>
-      </c>
-      <c r="B66" t="s">
-        <v>134</v>
-      </c>
-      <c r="C66" t="s">
-        <v>135</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>865</v>
-      </c>
-      <c r="E66" s="10" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F66" s="10" t="s">
-        <v>999</v>
-      </c>
-      <c r="G66" s="10" t="s">
-        <v>1034</v>
-      </c>
-      <c r="H66" s="10" t="s">
-        <v>998</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="L66" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>705</v>
-      </c>
-      <c r="N66" s="7" t="s">
-        <v>678</v>
-      </c>
-      <c r="Q66" s="2"/>
-    </row>
-    <row r="67" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>65</v>
-      </c>
-      <c r="B67" t="s">
-        <v>136</v>
-      </c>
-      <c r="C67" t="s">
-        <v>137</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>479</v>
-      </c>
-      <c r="E67" s="10" t="s">
-        <v>1212</v>
-      </c>
-      <c r="F67" s="10" t="s">
-        <v>1035</v>
-      </c>
-      <c r="G67" s="10" t="s">
-        <v>1036</v>
-      </c>
-      <c r="H67" s="10" t="s">
-        <v>1037</v>
-      </c>
       <c r="I67" s="1" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>785</v>
+        <v>681</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>786</v>
+        <v>702</v>
       </c>
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
       <c r="Q67" s="2"/>
     </row>
-    <row r="68" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" ht="150" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C68" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>1213</v>
+        <v>1206</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>1038</v>
+        <v>1030</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>689</v>
+        <v>705</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
       <c r="Q68" s="2"/>
     </row>
-    <row r="69" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" ht="195" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C69" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>862</v>
+        <v>842</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>1214</v>
+        <v>1207</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>1038</v>
+        <v>1027</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="H69" s="10" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>713</v>
+        <v>779</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>714</v>
+        <v>780</v>
       </c>
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
       <c r="Q69" s="2"/>
     </row>
-    <row r="70" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" ht="135" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C70" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>850</v>
+        <v>471</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>1215</v>
+        <v>1208</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>1035</v>
+        <v>1027</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>787</v>
+        <v>707</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>788</v>
+        <v>710</v>
       </c>
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
       <c r="Q70" s="2"/>
     </row>
-    <row r="71" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C71" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>479</v>
+        <v>858</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>1216</v>
+        <v>1209</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>518</v>
+        <v>428</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>435</v>
+        <v>342</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>349</v>
+        <v>511</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>715</v>
+        <v>739</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>718</v>
+        <v>740</v>
       </c>
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
       <c r="Q71" s="2"/>
     </row>
-    <row r="72" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" ht="180" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C72" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>866</v>
+        <v>851</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>1217</v>
+        <v>1210</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>747</v>
+        <v>838</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>748</v>
+        <v>839</v>
       </c>
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
       <c r="Q72" s="2"/>
     </row>
-    <row r="73" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" ht="150" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C73" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>859</v>
+        <v>842</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>1218</v>
+        <v>1211</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="H73" s="10" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>846</v>
+        <v>769</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>847</v>
+        <v>770</v>
       </c>
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
       <c r="Q73" s="2"/>
     </row>
-    <row r="74" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" ht="135" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C74" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>850</v>
+        <v>859</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>1219</v>
+        <v>1212</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>1054</v>
+        <v>1042</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>1055</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="K74" s="1" t="s">
-        <v>521</v>
+        <v>1049</v>
+      </c>
+      <c r="I74" t="s">
+        <v>431</v>
+      </c>
+      <c r="J74" t="s">
+        <v>345</v>
+      </c>
+      <c r="K74" t="s">
+        <v>514</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>653</v>
+        <v>636</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>777</v>
+        <v>698</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>778</v>
+        <v>699</v>
       </c>
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
       <c r="Q74" s="2"/>
     </row>
-    <row r="75" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" ht="150" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C75" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>867</v>
+        <v>855</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>1220</v>
+        <v>1213</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="H75" s="10" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="I75" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="J75" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="K75" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
       <c r="Q75" s="2"/>
     </row>
-    <row r="76" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" ht="150" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C76" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>863</v>
+        <v>471</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>1221</v>
+        <v>1214</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="H76" s="10" t="s">
-        <v>1060</v>
-      </c>
-      <c r="I76" t="s">
-        <v>440</v>
-      </c>
-      <c r="J76" t="s">
-        <v>354</v>
-      </c>
-      <c r="K76" t="s">
-        <v>523</v>
+        <v>1055</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>516</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>645</v>
+        <v>631</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>708</v>
+        <v>794</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>709</v>
+        <v>795</v>
       </c>
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
       <c r="Q76" s="2"/>
     </row>
-    <row r="77" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" ht="105" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C77" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>1222</v>
+        <v>1215</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>1061</v>
+        <v>1054</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="H77" s="10" t="s">
-        <v>1063</v>
+        <v>986</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
       <c r="Q77" s="2"/>
     </row>
-    <row r="78" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" ht="150" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C78" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>1223</v>
+        <v>1216</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="H78" s="10" t="s">
-        <v>994</v>
+        <v>986</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>442</v>
+        <v>349</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>356</v>
+        <v>518</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>525</v>
+        <v>435</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>805</v>
+        <v>680</v>
       </c>
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="2"/>
     </row>
-    <row r="79" spans="1:17" ht="315" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" ht="165" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C79" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>1224</v>
+        <v>1217</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="H79" s="10" t="s">
-        <v>994</v>
+        <v>1061</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>357</v>
+        <v>519</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>526</v>
+        <v>436</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>443</v>
+        <v>350</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>688</v>
+        <v>760</v>
       </c>
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
       <c r="Q79" s="2"/>
     </row>
-    <row r="80" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" ht="150" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C80" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>1225</v>
+        <v>1218</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>1068</v>
+        <v>1057</v>
       </c>
       <c r="H80" s="10" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>527</v>
+        <v>437</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>444</v>
+        <v>351</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>358</v>
+        <v>520</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>811</v>
+        <v>798</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>768</v>
+        <v>799</v>
       </c>
       <c r="O80" s="1"/>
       <c r="P80" s="1"/>
       <c r="Q80" s="2"/>
     </row>
-    <row r="81" spans="1:17" ht="315" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" ht="135" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C81" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>1226</v>
+        <v>1219</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="G81" s="10" t="s">
         <v>1065</v>
       </c>
       <c r="H81" s="10" t="s">
-        <v>1071</v>
+        <v>1061</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>445</v>
+        <v>352</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>359</v>
+        <v>521</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>528</v>
+        <v>438</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="O81" s="1"/>
       <c r="P81" s="1"/>
       <c r="Q81" s="2"/>
     </row>
-    <row r="82" spans="1:17" ht="345" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C82" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>1227</v>
+        <v>1220</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>1073</v>
+        <v>1066</v>
       </c>
       <c r="H82" s="10" t="s">
-        <v>1069</v>
+        <v>1061</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>360</v>
+        <v>522</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>529</v>
+        <v>439</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>446</v>
+        <v>353</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>809</v>
+        <v>680</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="O82" s="1"/>
       <c r="P82" s="1"/>
       <c r="Q82" s="2"/>
     </row>
-    <row r="83" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" ht="148.5" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>168</v>
+        <v>272</v>
       </c>
       <c r="C83" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>479</v>
+        <v>845</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>1228</v>
+        <v>1221</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="H83" s="10" t="s">
         <v>1069</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>530</v>
+        <v>354</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>447</v>
+        <v>523</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>361</v>
+        <v>440</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>641</v>
+        <v>658</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>688</v>
+        <v>831</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>808</v>
+        <v>832</v>
       </c>
       <c r="O83" s="1"/>
       <c r="P83" s="1"/>
       <c r="Q83" s="2"/>
     </row>
-    <row r="84" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" ht="180" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C84" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>853</v>
+        <v>860</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>1229</v>
+        <v>1149</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="H84" s="10" t="s">
-        <v>1077</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="K84" s="1" t="s">
-        <v>448</v>
+        <v>1072</v>
+      </c>
+      <c r="I84" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="J84" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="K84" s="5" t="s">
+        <v>355</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="M84" s="3" t="s">
-        <v>839</v>
+        <v>630</v>
+      </c>
+      <c r="M84" s="8" t="s">
+        <v>669</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>840</v>
+        <v>670</v>
       </c>
       <c r="O84" s="1"/>
       <c r="P84" s="1"/>
-      <c r="Q84" s="2"/>
-    </row>
-    <row r="85" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:17" ht="135" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>281</v>
+        <v>164</v>
       </c>
       <c r="C85" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>868</v>
+        <v>845</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>1157</v>
+        <v>1222</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>1079</v>
+        <v>986</v>
       </c>
       <c r="H85" s="10" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I85" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="J85" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="K85" s="5" t="s">
-        <v>363</v>
+        <v>1067</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>442</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="M85" s="8" t="s">
-        <v>677</v>
+        <v>631</v>
+      </c>
+      <c r="M85" s="3" t="s">
+        <v>714</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>678</v>
+        <v>715</v>
       </c>
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
-    </row>
-    <row r="86" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="Q85" s="2"/>
+    </row>
+    <row r="86" spans="1:17" ht="120" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C86" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>853</v>
+        <v>861</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>1230</v>
+        <v>1223</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>994</v>
+        <v>1075</v>
       </c>
       <c r="H86" s="10" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>364</v>
+        <v>526</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>533</v>
+        <v>443</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>450</v>
+        <v>357</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>722</v>
+        <v>674</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>723</v>
+        <v>673</v>
       </c>
       <c r="O86" s="1"/>
       <c r="P86" s="1"/>
       <c r="Q86" s="2"/>
     </row>
-    <row r="87" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>85</v>
+    <row r="87" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>168</v>
       </c>
       <c r="B87" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C87" t="s">
-        <v>175</v>
+        <v>281</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>869</v>
+        <v>842</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>1231</v>
+        <v>1224</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="H87" s="10" t="s">
-        <v>1084</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="K87" s="1" t="s">
-        <v>365</v>
+        <v>1079</v>
+      </c>
+      <c r="I87" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="J87" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="K87" s="5" t="s">
+        <v>527</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="M87" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="N87" s="1" t="s">
-        <v>681</v>
+        <v>612</v>
+      </c>
+      <c r="M87" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="N87" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="O87" s="1"/>
       <c r="P87" s="1"/>
       <c r="Q87" s="2"/>
     </row>
-    <row r="88" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>176</v>
+    <row r="88" spans="1:17" ht="132" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C88" t="s">
-        <v>289</v>
+        <v>171</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>1232</v>
+        <v>1225</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="H88" s="10" t="s">
-        <v>1087</v>
-      </c>
-      <c r="I88" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="J88" s="5" t="s">
-        <v>619</v>
-      </c>
-      <c r="K88" s="5" t="s">
-        <v>535</v>
+        <v>1079</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>528</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="M88" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="N88" s="2" t="s">
-        <v>620</v>
+        <v>635</v>
+      </c>
+      <c r="M88" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="N88" s="1" t="s">
+        <v>776</v>
       </c>
       <c r="O88" s="1"/>
       <c r="P88" s="1"/>
       <c r="Q88" s="2"/>
     </row>
-    <row r="89" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>87</v>
+    <row r="89" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>172</v>
       </c>
       <c r="B89" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C89" t="s">
-        <v>179</v>
+        <v>282</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>1233</v>
+        <v>1226</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>1088</v>
+        <v>996</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>1089</v>
+        <v>1082</v>
       </c>
       <c r="H89" s="10" t="s">
-        <v>1087</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="J89" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="K89" s="1" t="s">
-        <v>536</v>
+        <v>1083</v>
+      </c>
+      <c r="I89" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="J89" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="K89" s="5" t="s">
+        <v>529</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>783</v>
-      </c>
-      <c r="N89" s="1" t="s">
-        <v>784</v>
+        <v>612</v>
+      </c>
+      <c r="M89" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="N89" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="O89" s="1"/>
       <c r="P89" s="1"/>
       <c r="Q89" s="2"/>
     </row>
-    <row r="90" spans="1:17" ht="405" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>180</v>
+    <row r="90" spans="1:17" ht="105" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C90" t="s">
-        <v>290</v>
+        <v>175</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>850</v>
+        <v>471</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>1234</v>
+        <v>1227</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>1004</v>
+        <v>1077</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>1090</v>
+        <v>1078</v>
       </c>
       <c r="H90" s="10" t="s">
-        <v>1091</v>
-      </c>
-      <c r="I90" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="J90" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="K90" s="5" t="s">
-        <v>537</v>
+        <v>1084</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>530</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="M90" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="N90" s="2" t="s">
-        <v>620</v>
+        <v>635</v>
+      </c>
+      <c r="M90" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="N90" s="1" t="s">
+        <v>680</v>
       </c>
       <c r="O90" s="1"/>
       <c r="P90" s="1"/>
       <c r="Q90" s="2"/>
     </row>
-    <row r="91" spans="1:17" ht="345" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" ht="99" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C91" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>479</v>
+        <v>842</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>1235</v>
+        <v>1228</v>
       </c>
       <c r="F91" s="10" t="s">
+        <v>996</v>
+      </c>
+      <c r="G91" s="10" t="s">
         <v>1085</v>
       </c>
-      <c r="G91" s="10" t="s">
+      <c r="H91" s="10" t="s">
         <v>1086</v>
       </c>
-      <c r="H91" s="10" t="s">
-        <v>1092</v>
-      </c>
       <c r="I91" s="1" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>812</v>
+        <v>781</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>688</v>
+        <v>782</v>
       </c>
       <c r="O91" s="1"/>
       <c r="P91" s="1"/>
       <c r="Q91" s="2"/>
     </row>
-    <row r="92" spans="1:17" ht="405" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" ht="132" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C92" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>850</v>
+        <v>862</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>1236</v>
+        <v>1087</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>1004</v>
+        <v>1088</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="H92" s="10" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="M92" s="3" t="s">
-        <v>789</v>
-      </c>
-      <c r="N92" s="1" t="s">
-        <v>790</v>
+        <v>632</v>
+      </c>
+      <c r="M92" s="9" t="s">
+        <v>835</v>
+      </c>
+      <c r="N92" s="5" t="s">
+        <v>836</v>
       </c>
       <c r="O92" s="1"/>
       <c r="P92" s="1"/>
       <c r="Q92" s="2"/>
     </row>
-    <row r="93" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" ht="120" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C93" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>1095</v>
+        <v>1229</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
       <c r="H93" s="10" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="M93" s="9" t="s">
-        <v>843</v>
-      </c>
-      <c r="N93" s="5" t="s">
-        <v>844</v>
+        <v>634</v>
+      </c>
+      <c r="M93" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="N93" s="1" t="s">
+        <v>834</v>
       </c>
       <c r="O93" s="1"/>
       <c r="P93" s="1"/>
       <c r="Q93" s="2"/>
     </row>
-    <row r="94" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" ht="165" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C94" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>871</v>
+        <v>845</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>1237</v>
+        <v>1230</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>1099</v>
+        <v>1094</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>1100</v>
+        <v>1095</v>
       </c>
       <c r="H94" s="10" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>841</v>
+        <v>717</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>842</v>
+        <v>718</v>
       </c>
       <c r="O94" s="1"/>
       <c r="P94" s="1"/>
       <c r="Q94" s="2"/>
     </row>
-    <row r="95" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" ht="120" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C95" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>1238</v>
+        <v>1231</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="G95" s="10" t="s">
-        <v>1103</v>
+        <v>1096</v>
       </c>
       <c r="H95" s="10" t="s">
-        <v>1104</v>
+        <v>1097</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>725</v>
+        <v>771</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>726</v>
+        <v>772</v>
       </c>
       <c r="O95" s="1"/>
       <c r="P95" s="1"/>
       <c r="Q95" s="2"/>
     </row>
-    <row r="96" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" ht="105" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C96" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>864</v>
+        <v>471</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>1239</v>
+        <v>1232</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>1102</v>
+        <v>1091</v>
       </c>
       <c r="G96" s="10" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="H96" s="10" t="s">
-        <v>1105</v>
+        <v>1096</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>779</v>
+        <v>809</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>780</v>
+        <v>810</v>
       </c>
       <c r="O96" s="1"/>
       <c r="P96" s="1"/>
       <c r="Q96" s="2"/>
     </row>
-    <row r="97" spans="1:17 16384:16384" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>95</v>
+    <row r="97" spans="1:17 16384:16384" ht="105" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>188</v>
       </c>
       <c r="B97" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C97" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>479</v>
+        <v>864</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>1240</v>
+        <v>1233</v>
       </c>
       <c r="F97" s="10" t="s">
+        <v>996</v>
+      </c>
+      <c r="G97" s="10" t="s">
         <v>1099</v>
       </c>
-      <c r="G97" s="10" t="s">
-        <v>1106</v>
-      </c>
       <c r="H97" s="10" t="s">
+        <v>1093</v>
+      </c>
+      <c r="I97" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="J97" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="K97" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="L97" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="M97" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="N97" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="Q97" s="2"/>
+      <c r="XFD97" s="2"/>
+    </row>
+    <row r="98" spans="1:17 16384:16384" ht="99" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>190</v>
+      </c>
+      <c r="C98" t="s">
+        <v>191</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="E98" s="10" t="s">
+        <v>1234</v>
+      </c>
+      <c r="F98" s="10" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G98" s="10" t="s">
+        <v>1101</v>
+      </c>
+      <c r="H98" s="10" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="L98" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="M98" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="N98" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="O98" s="1"/>
+      <c r="P98" s="1"/>
+      <c r="Q98" s="2"/>
+    </row>
+    <row r="99" spans="1:17 16384:16384" ht="82.5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>192</v>
+      </c>
+      <c r="C99" t="s">
+        <v>193</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>865</v>
+      </c>
+      <c r="E99" s="10" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F99" s="10" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G99" s="10" t="s">
+        <v>1103</v>
+      </c>
+      <c r="H99" s="10" t="s">
         <v>1104</v>
       </c>
-      <c r="I97" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="J97" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="K97" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="L97" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="M97" s="3" t="s">
-        <v>817</v>
-      </c>
-      <c r="N97" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="O97" s="1"/>
-      <c r="P97" s="1"/>
-      <c r="Q97" s="2"/>
-    </row>
-    <row r="98" spans="1:17 16384:16384" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>196</v>
-      </c>
-      <c r="B98" t="s">
-        <v>197</v>
-      </c>
-      <c r="C98" t="s">
-        <v>291</v>
-      </c>
-      <c r="D98" s="10" t="s">
-        <v>872</v>
-      </c>
-      <c r="E98" s="10" t="s">
-        <v>1241</v>
-      </c>
-      <c r="F98" s="10" t="s">
-        <v>1004</v>
-      </c>
-      <c r="G98" s="10" t="s">
-        <v>1107</v>
-      </c>
-      <c r="H98" s="10" t="s">
-        <v>1101</v>
-      </c>
-      <c r="I98" s="5" t="s">
-        <v>620</v>
-      </c>
-      <c r="J98" s="5" t="s">
-        <v>620</v>
-      </c>
-      <c r="K98" s="5" t="s">
-        <v>620</v>
-      </c>
-      <c r="L98" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="M98" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="N98" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="Q98" s="2"/>
-      <c r="XFD98" s="2"/>
-    </row>
-    <row r="99" spans="1:17 16384:16384" ht="285" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>97</v>
-      </c>
-      <c r="B99" t="s">
-        <v>198</v>
-      </c>
-      <c r="C99" t="s">
-        <v>199</v>
-      </c>
-      <c r="D99" s="10" t="s">
-        <v>479</v>
-      </c>
-      <c r="E99" s="10" t="s">
-        <v>1242</v>
-      </c>
-      <c r="F99" s="10" t="s">
-        <v>1108</v>
-      </c>
-      <c r="G99" s="10" t="s">
-        <v>1109</v>
-      </c>
-      <c r="H99" s="10" t="s">
-        <v>1087</v>
-      </c>
       <c r="I99" s="1" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>461</v>
+        <v>394</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>659</v>
+        <v>635</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>819</v>
+        <v>830</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>820</v>
+        <v>706</v>
       </c>
       <c r="O99" s="1"/>
       <c r="P99" s="1"/>
       <c r="Q99" s="2"/>
     </row>
-    <row r="100" spans="1:17 16384:16384" ht="390" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17 16384:16384" ht="99" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C100" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>1110</v>
+        <v>1105</v>
       </c>
       <c r="F100" s="10" t="s">
-        <v>1088</v>
+        <v>1064</v>
       </c>
       <c r="G100" s="10" t="s">
-        <v>1111</v>
+        <v>1106</v>
       </c>
       <c r="H100" s="10" t="s">
-        <v>1112</v>
+        <v>1093</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>402</v>
+        <v>454</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>838</v>
+        <v>829</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>714</v>
+        <v>780</v>
       </c>
       <c r="O100" s="1"/>
       <c r="P100" s="1"/>
       <c r="Q100" s="2"/>
     </row>
-    <row r="101" spans="1:17 16384:16384" ht="390" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>99</v>
+    <row r="101" spans="1:17 16384:16384" ht="90" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>196</v>
       </c>
       <c r="B101" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C101" t="s">
-        <v>203</v>
+        <v>284</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>874</v>
+        <v>256</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
       <c r="F101" s="10" t="s">
-        <v>1072</v>
+        <v>1091</v>
       </c>
       <c r="G101" s="10" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
       <c r="H101" s="10" t="s">
-        <v>1101</v>
-      </c>
-      <c r="I101" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="J101" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="K101" s="1" t="s">
-        <v>377</v>
+        <v>1096</v>
+      </c>
+      <c r="I101" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="J101" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="K101" s="5" t="s">
+        <v>370</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>837</v>
-      </c>
-      <c r="N101" s="1" t="s">
-        <v>788</v>
+        <v>612</v>
+      </c>
+      <c r="M101" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="N101" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="O101" s="1"/>
       <c r="P101" s="1"/>
       <c r="Q101" s="2"/>
     </row>
-    <row r="102" spans="1:17 16384:16384" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>204</v>
+    <row r="102" spans="1:17 16384:16384" ht="99" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C102" t="s">
-        <v>292</v>
+        <v>199</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>264</v>
+        <v>845</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>1115</v>
+        <v>1235</v>
       </c>
       <c r="F102" s="10" t="s">
-        <v>1099</v>
+        <v>1094</v>
       </c>
       <c r="G102" s="10" t="s">
-        <v>1116</v>
+        <v>1109</v>
       </c>
       <c r="H102" s="10" t="s">
-        <v>1104</v>
-      </c>
-      <c r="I102" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="J102" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="K102" s="5" t="s">
-        <v>378</v>
+        <v>1096</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>371</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="M102" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="N102" s="2" t="s">
-        <v>620</v>
+        <v>641</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="N102" s="1" t="s">
+        <v>722</v>
       </c>
       <c r="O102" s="1"/>
       <c r="P102" s="1"/>
       <c r="Q102" s="2"/>
     </row>
-    <row r="103" spans="1:17 16384:16384" ht="255" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>101</v>
+    <row r="103" spans="1:17 16384:16384" ht="105" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>200</v>
       </c>
       <c r="B103" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C103" t="s">
-        <v>207</v>
+        <v>285</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>853</v>
+        <v>256</v>
       </c>
       <c r="E103" s="10" t="s">
-        <v>1243</v>
+        <v>1110</v>
       </c>
       <c r="F103" s="10" t="s">
-        <v>1102</v>
+        <v>1093</v>
       </c>
       <c r="G103" s="10" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
       <c r="H103" s="10" t="s">
-        <v>1104</v>
-      </c>
-      <c r="I103" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="J103" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="K103" s="1" t="s">
-        <v>379</v>
+        <v>1112</v>
+      </c>
+      <c r="I103" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="J103" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="K103" s="5" t="s">
+        <v>457</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="M103" s="3" t="s">
-        <v>729</v>
-      </c>
-      <c r="N103" s="1" t="s">
-        <v>730</v>
+        <v>612</v>
+      </c>
+      <c r="M103" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="N103" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="O103" s="1"/>
       <c r="P103" s="1"/>
       <c r="Q103" s="2"/>
     </row>
-    <row r="104" spans="1:17 16384:16384" ht="315" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>208</v>
+    <row r="104" spans="1:17 16384:16384" ht="105" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C104" t="s">
-        <v>293</v>
+        <v>203</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>264</v>
+        <v>845</v>
       </c>
       <c r="E104" s="10" t="s">
-        <v>1118</v>
+        <v>1236</v>
       </c>
       <c r="F104" s="10" t="s">
-        <v>1101</v>
+        <v>1074</v>
       </c>
       <c r="G104" s="10" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
       <c r="H104" s="10" t="s">
-        <v>1120</v>
-      </c>
-      <c r="I104" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="J104" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="K104" s="5" t="s">
-        <v>465</v>
+        <v>1096</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>543</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="M104" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="N104" s="2" t="s">
-        <v>620</v>
+        <v>640</v>
+      </c>
+      <c r="M104" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="N104" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="O104" s="1"/>
       <c r="P104" s="1"/>
       <c r="Q104" s="2"/>
     </row>
-    <row r="105" spans="1:17 16384:16384" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17 16384:16384" ht="105" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C105" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>853</v>
+        <v>867</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>1244</v>
+        <v>1114</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>1082</v>
+        <v>1088</v>
       </c>
       <c r="G105" s="10" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="H105" s="10" t="s">
-        <v>1104</v>
+        <v>1116</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="M105" s="3" t="s">
-        <v>724</v>
+        <v>827</v>
       </c>
       <c r="N105" s="1" t="s">
-        <v>718</v>
+        <v>828</v>
       </c>
       <c r="O105" s="1"/>
       <c r="P105" s="1"/>
       <c r="Q105" s="2"/>
     </row>
-    <row r="106" spans="1:17 16384:16384" ht="375" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17 16384:16384" ht="105" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C106" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>875</v>
+        <v>471</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>1122</v>
+        <v>1237</v>
       </c>
       <c r="F106" s="10" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G106" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="H106" s="10" t="s">
         <v>1096</v>
       </c>
-      <c r="G106" s="10" t="s">
-        <v>1123</v>
-      </c>
-      <c r="H106" s="10" t="s">
-        <v>1124</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="J106" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="K106" s="1" t="s">
-        <v>552</v>
+      <c r="I106" t="s">
+        <v>576</v>
+      </c>
+      <c r="J106" t="s">
+        <v>577</v>
+      </c>
+      <c r="K106" t="s">
+        <v>578</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="M106" s="3" t="s">
-        <v>835</v>
+        <v>805</v>
       </c>
       <c r="N106" s="1" t="s">
-        <v>836</v>
+        <v>806</v>
       </c>
       <c r="O106" s="1"/>
       <c r="P106" s="1"/>
       <c r="Q106" s="2"/>
     </row>
-    <row r="107" spans="1:17 16384:16384" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17 16384:16384" ht="90" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C107" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>1082</v>
+        <v>1118</v>
       </c>
       <c r="G107" s="10" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
       <c r="H107" s="10" t="s">
-        <v>1104</v>
+        <v>1120</v>
       </c>
       <c r="I107" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="J107" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="K107" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>638</v>
+        <v>650</v>
       </c>
       <c r="M107" s="3" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="N107" s="1" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="O107" s="1"/>
       <c r="P107" s="1"/>
       <c r="Q107" s="2"/>
     </row>
-    <row r="108" spans="1:17 16384:16384" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17 16384:16384" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C108" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>479</v>
+        <v>868</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>1246</v>
+        <v>1239</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>1126</v>
+        <v>1091</v>
       </c>
       <c r="G108" s="10" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
       <c r="H108" s="10" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
       <c r="I108" t="s">
-        <v>587</v>
+        <v>564</v>
       </c>
       <c r="J108" t="s">
-        <v>588</v>
+        <v>565</v>
       </c>
       <c r="K108" t="s">
-        <v>589</v>
+        <v>566</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>658</v>
+        <v>631</v>
       </c>
       <c r="M108" s="3" t="s">
-        <v>815</v>
+        <v>754</v>
       </c>
       <c r="N108" s="1" t="s">
-        <v>816</v>
+        <v>733</v>
       </c>
       <c r="O108" s="1"/>
       <c r="P108" s="1"/>
       <c r="Q108" s="2"/>
     </row>
-    <row r="109" spans="1:17 16384:16384" ht="375" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17 16384:16384" ht="90" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C109" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>1247</v>
+        <v>1240</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>1099</v>
+        <v>1067</v>
       </c>
       <c r="G109" s="10" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
       <c r="H109" s="10" t="s">
-        <v>1130</v>
+        <v>1121</v>
       </c>
       <c r="I109" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="J109" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="K109" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="M109" s="3" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="N109" s="1" t="s">
-        <v>741</v>
+        <v>726</v>
       </c>
       <c r="O109" s="1"/>
       <c r="P109" s="1"/>
       <c r="Q109" s="2"/>
     </row>
-    <row r="110" spans="1:17 16384:16384" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17 16384:16384" ht="90" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C110" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>876</v>
+        <v>471</v>
       </c>
       <c r="E110" s="10" t="s">
-        <v>1248</v>
+        <v>1241</v>
       </c>
       <c r="F110" s="10" t="s">
-        <v>1075</v>
+        <v>1080</v>
       </c>
       <c r="G110" s="10" t="s">
-        <v>1131</v>
+        <v>1124</v>
       </c>
       <c r="H110" s="10" t="s">
-        <v>1129</v>
+        <v>934</v>
       </c>
       <c r="I110" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="J110" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="K110" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="L110" s="2" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="M110" s="3" t="s">
-        <v>763</v>
+        <v>815</v>
       </c>
       <c r="N110" s="1" t="s">
-        <v>734</v>
+        <v>816</v>
       </c>
       <c r="O110" s="1"/>
       <c r="P110" s="1"/>
       <c r="Q110" s="2"/>
     </row>
-    <row r="111" spans="1:17 16384:16384" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>109</v>
+    <row r="111" spans="1:17 16384:16384" ht="90" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>216</v>
       </c>
       <c r="B111" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C111" t="s">
-        <v>223</v>
+        <v>286</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>479</v>
+        <v>256</v>
       </c>
       <c r="E111" s="10" t="s">
-        <v>1249</v>
+        <v>1242</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>1088</v>
+        <v>1080</v>
       </c>
       <c r="G111" s="10" t="s">
-        <v>1132</v>
+        <v>1125</v>
       </c>
       <c r="H111" s="10" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
       <c r="I111" t="s">
-        <v>590</v>
+        <v>613</v>
       </c>
       <c r="J111" t="s">
-        <v>591</v>
+        <v>614</v>
       </c>
       <c r="K111" t="s">
-        <v>592</v>
+        <v>615</v>
       </c>
       <c r="L111" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="M111" s="3" t="s">
-        <v>823</v>
-      </c>
-      <c r="N111" s="1" t="s">
-        <v>824</v>
+        <v>612</v>
+      </c>
+      <c r="M111" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="N111" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="O111" s="1"/>
       <c r="P111" s="1"/>
       <c r="Q111" s="2"/>
     </row>
-    <row r="112" spans="1:17 16384:16384" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>224</v>
+    <row r="112" spans="1:17 16384:16384" ht="90" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C112" t="s">
-        <v>294</v>
+        <v>219</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>264</v>
+        <v>869</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>1250</v>
+        <v>1243</v>
       </c>
       <c r="F112" s="10" t="s">
-        <v>1088</v>
+        <v>1080</v>
       </c>
       <c r="G112" s="10" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H112" s="10" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
       <c r="I112" t="s">
-        <v>621</v>
+        <v>554</v>
       </c>
       <c r="J112" t="s">
-        <v>622</v>
+        <v>555</v>
       </c>
       <c r="K112" t="s">
-        <v>623</v>
+        <v>309</v>
       </c>
       <c r="L112" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="M112" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="N112" s="2" t="s">
-        <v>620</v>
+        <v>630</v>
+      </c>
+      <c r="M112" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="N112" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="O112" s="1"/>
       <c r="P112" s="1"/>
       <c r="Q112" s="2"/>
     </row>
-    <row r="113" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>111</v>
+    <row r="113" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>220</v>
       </c>
       <c r="B113" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C113" t="s">
-        <v>227</v>
+        <v>287</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>877</v>
+        <v>256</v>
       </c>
       <c r="E113" s="10" t="s">
-        <v>1251</v>
+        <v>1244</v>
       </c>
       <c r="F113" s="10" t="s">
-        <v>1088</v>
+        <v>1074</v>
       </c>
       <c r="G113" s="10" t="s">
-        <v>1134</v>
+        <v>1127</v>
       </c>
       <c r="H113" s="10" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
       <c r="I113" t="s">
-        <v>562</v>
+        <v>616</v>
       </c>
       <c r="J113" t="s">
-        <v>563</v>
+        <v>617</v>
       </c>
       <c r="K113" t="s">
-        <v>317</v>
+        <v>618</v>
       </c>
       <c r="L113" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="M113" s="3" t="s">
-        <v>717</v>
-      </c>
-      <c r="N113" s="1" t="s">
-        <v>718</v>
+        <v>612</v>
+      </c>
+      <c r="M113" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="N113" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="O113" s="1"/>
       <c r="P113" s="1"/>
       <c r="Q113" s="2"/>
     </row>
-    <row r="114" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>228</v>
+    <row r="114" spans="1:17" ht="105" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C114" t="s">
-        <v>295</v>
+        <v>223</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>264</v>
+        <v>471</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>1252</v>
+        <v>1245</v>
       </c>
       <c r="F114" s="10" t="s">
-        <v>1082</v>
+        <v>1128</v>
       </c>
       <c r="G114" s="10" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
       <c r="H114" s="10" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
       <c r="I114" t="s">
-        <v>624</v>
+        <v>585</v>
       </c>
       <c r="J114" t="s">
-        <v>625</v>
+        <v>586</v>
       </c>
       <c r="K114" t="s">
-        <v>626</v>
+        <v>587</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="M114" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="N114" s="2" t="s">
-        <v>620</v>
+        <v>652</v>
+      </c>
+      <c r="M114" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="N114" s="1" t="s">
+        <v>817</v>
       </c>
       <c r="O114" s="1"/>
       <c r="P114" s="1"/>
       <c r="Q114" s="2"/>
     </row>
-    <row r="115" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>113</v>
+    <row r="115" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>224</v>
       </c>
       <c r="B115" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C115" t="s">
-        <v>231</v>
+        <v>288</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>479</v>
+        <v>256</v>
       </c>
       <c r="E115" s="10" t="s">
-        <v>1253</v>
+        <v>1246</v>
       </c>
       <c r="F115" s="10" t="s">
-        <v>1136</v>
+        <v>1091</v>
       </c>
       <c r="G115" s="10" t="s">
-        <v>1137</v>
+        <v>1130</v>
       </c>
       <c r="H115" s="10" t="s">
-        <v>942</v>
+        <v>1093</v>
       </c>
       <c r="I115" t="s">
-        <v>593</v>
+        <v>619</v>
       </c>
       <c r="J115" t="s">
-        <v>594</v>
+        <v>620</v>
       </c>
       <c r="K115" t="s">
-        <v>595</v>
+        <v>621</v>
       </c>
       <c r="L115" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="M115" s="3" t="s">
-        <v>786</v>
-      </c>
-      <c r="N115" s="1" t="s">
-        <v>825</v>
+        <v>612</v>
+      </c>
+      <c r="M115" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="N115" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="O115" s="1"/>
       <c r="P115" s="1"/>
       <c r="Q115" s="2"/>
     </row>
-    <row r="116" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>232</v>
+    <row r="116" spans="1:17" ht="165" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C116" t="s">
-        <v>296</v>
+        <v>227</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>264</v>
+        <v>845</v>
       </c>
       <c r="E116" s="10" t="s">
-        <v>1254</v>
+        <v>1247</v>
       </c>
       <c r="F116" s="10" t="s">
-        <v>1099</v>
+        <v>1131</v>
       </c>
       <c r="G116" s="10" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
       <c r="H116" s="10" t="s">
-        <v>1101</v>
+        <v>1093</v>
       </c>
       <c r="I116" t="s">
-        <v>627</v>
+        <v>570</v>
       </c>
       <c r="J116" t="s">
-        <v>628</v>
+        <v>571</v>
       </c>
       <c r="K116" t="s">
-        <v>629</v>
+        <v>572</v>
       </c>
       <c r="L116" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="M116" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="N116" s="2" t="s">
-        <v>620</v>
+        <v>632</v>
+      </c>
+      <c r="M116" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="N116" s="1" t="s">
+        <v>766</v>
       </c>
       <c r="O116" s="1"/>
       <c r="P116" s="1"/>
       <c r="Q116" s="2"/>
     </row>
-    <row r="117" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17" ht="148.5" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C117" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>853</v>
+        <v>870</v>
       </c>
       <c r="E117" s="10" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
       <c r="F117" s="10" t="s">
-        <v>1139</v>
+        <v>1131</v>
       </c>
       <c r="G117" s="10" t="s">
-        <v>1140</v>
+        <v>1133</v>
       </c>
       <c r="H117" s="10" t="s">
-        <v>1101</v>
+        <v>1093</v>
       </c>
       <c r="I117" t="s">
-        <v>578</v>
+        <v>551</v>
       </c>
       <c r="J117" t="s">
-        <v>579</v>
+        <v>552</v>
       </c>
       <c r="K117" t="s">
-        <v>580</v>
+        <v>553</v>
       </c>
       <c r="L117" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="M117" s="3" t="s">
-        <v>773</v>
+        <v>707</v>
       </c>
       <c r="N117" s="1" t="s">
-        <v>774</v>
+        <v>708</v>
       </c>
       <c r="O117" s="1"/>
       <c r="P117" s="1"/>
       <c r="Q117" s="2"/>
     </row>
-    <row r="118" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:17" ht="135" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C118" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>878</v>
+        <v>471</v>
       </c>
       <c r="E118" s="10" t="s">
-        <v>1256</v>
+        <v>1249</v>
       </c>
       <c r="F118" s="10" t="s">
-        <v>1139</v>
+        <v>1088</v>
       </c>
       <c r="G118" s="10" t="s">
-        <v>1141</v>
+        <v>1134</v>
       </c>
       <c r="H118" s="10" t="s">
-        <v>1101</v>
+        <v>1093</v>
       </c>
       <c r="I118" t="s">
-        <v>559</v>
+        <v>591</v>
       </c>
       <c r="J118" t="s">
-        <v>560</v>
+        <v>592</v>
       </c>
       <c r="K118" t="s">
-        <v>561</v>
+        <v>593</v>
       </c>
       <c r="L118" s="2" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
       <c r="M118" s="3" t="s">
-        <v>715</v>
+        <v>804</v>
       </c>
       <c r="N118" s="1" t="s">
-        <v>716</v>
+        <v>820</v>
       </c>
       <c r="O118" s="1"/>
       <c r="P118" s="1"/>
       <c r="Q118" s="2"/>
     </row>
-    <row r="119" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:17" ht="90" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C119" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="E119" s="10" t="s">
-        <v>1257</v>
+        <v>1250</v>
       </c>
       <c r="F119" s="10" t="s">
-        <v>1096</v>
+        <v>1135</v>
       </c>
       <c r="G119" s="10" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="H119" s="10" t="s">
-        <v>1101</v>
+        <v>1093</v>
       </c>
       <c r="I119" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="J119" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="K119" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="L119" s="2" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="M119" s="3" t="s">
-        <v>812</v>
+        <v>818</v>
       </c>
       <c r="N119" s="1" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
       <c r="O119" s="1"/>
       <c r="P119" s="1"/>
       <c r="Q119" s="2"/>
     </row>
-    <row r="120" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:17" ht="105" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C120" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>479</v>
+        <v>847</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>1258</v>
+        <v>1251</v>
       </c>
       <c r="F120" s="10" t="s">
-        <v>1143</v>
+        <v>1131</v>
       </c>
       <c r="G120" s="10" t="s">
-        <v>1144</v>
+        <v>1112</v>
       </c>
       <c r="H120" s="10" t="s">
-        <v>1101</v>
+        <v>1093</v>
       </c>
       <c r="I120" t="s">
-        <v>596</v>
+        <v>556</v>
       </c>
       <c r="J120" t="s">
-        <v>597</v>
+        <v>557</v>
       </c>
       <c r="K120" t="s">
-        <v>598</v>
+        <v>558</v>
       </c>
       <c r="L120" s="2" t="s">
-        <v>660</v>
+        <v>630</v>
       </c>
       <c r="M120" s="3" t="s">
-        <v>826</v>
+        <v>719</v>
       </c>
       <c r="N120" s="1" t="s">
-        <v>827</v>
+        <v>720</v>
       </c>
       <c r="O120" s="1"/>
       <c r="P120" s="1"/>
       <c r="Q120" s="2"/>
     </row>
-    <row r="121" spans="1:17" ht="375" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:17" ht="150" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C121" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
       <c r="E121" s="10" t="s">
-        <v>1259</v>
+        <v>1252</v>
       </c>
       <c r="F121" s="10" t="s">
-        <v>1139</v>
+        <v>1067</v>
       </c>
       <c r="G121" s="10" t="s">
-        <v>1120</v>
+        <v>1137</v>
       </c>
       <c r="H121" s="10" t="s">
-        <v>1101</v>
+        <v>1093</v>
       </c>
       <c r="I121" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="J121" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="K121" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="L121" s="2" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="M121" s="3" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="N121" s="1" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="O121" s="1"/>
       <c r="P121" s="1"/>
       <c r="Q121" s="2"/>
     </row>
-    <row r="122" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:17" ht="135" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C122" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>853</v>
+        <v>471</v>
       </c>
       <c r="E122" s="10" t="s">
-        <v>1260</v>
+        <v>1253</v>
       </c>
       <c r="F122" s="10" t="s">
-        <v>1075</v>
+        <v>1067</v>
       </c>
       <c r="G122" s="10" t="s">
-        <v>1145</v>
+        <v>1138</v>
       </c>
       <c r="H122" s="10" t="s">
-        <v>1101</v>
+        <v>1093</v>
       </c>
       <c r="I122" t="s">
-        <v>567</v>
+        <v>599</v>
       </c>
       <c r="J122" t="s">
-        <v>568</v>
+        <v>600</v>
       </c>
       <c r="K122" t="s">
-        <v>569</v>
+        <v>601</v>
       </c>
       <c r="L122" s="2" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="M122" s="3" t="s">
-        <v>731</v>
+        <v>707</v>
       </c>
       <c r="N122" s="1" t="s">
-        <v>732</v>
+        <v>823</v>
       </c>
       <c r="O122" s="1"/>
       <c r="P122" s="1"/>
       <c r="Q122" s="2"/>
     </row>
-    <row r="123" spans="1:17" ht="390" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:17" ht="135" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C123" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="E123" s="10" t="s">
-        <v>1261</v>
+        <v>1254</v>
       </c>
       <c r="F123" s="10" t="s">
-        <v>1075</v>
+        <v>1066</v>
       </c>
       <c r="G123" s="10" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="H123" s="10" t="s">
-        <v>1101</v>
+        <v>1093</v>
       </c>
       <c r="I123" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
       <c r="J123" t="s">
-        <v>608</v>
+        <v>513</v>
       </c>
       <c r="K123" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="L123" s="2" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="M123" s="3" t="s">
-        <v>715</v>
+        <v>821</v>
       </c>
       <c r="N123" s="1" t="s">
-        <v>831</v>
+        <v>755</v>
       </c>
       <c r="O123" s="1"/>
       <c r="P123" s="1"/>
       <c r="Q123" s="2"/>
     </row>
-    <row r="124" spans="1:17" ht="405" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C124" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>1262</v>
+        <v>1255</v>
       </c>
       <c r="F124" s="10" t="s">
-        <v>1074</v>
+        <v>1091</v>
       </c>
       <c r="G124" s="10" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="H124" s="10" t="s">
-        <v>1101</v>
+        <v>1093</v>
       </c>
       <c r="I124" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="J124" t="s">
-        <v>521</v>
+        <v>597</v>
       </c>
       <c r="K124" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="L124" s="2" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="M124" s="3" t="s">
-        <v>829</v>
+        <v>818</v>
       </c>
       <c r="N124" s="1" t="s">
-        <v>763</v>
+        <v>822</v>
       </c>
       <c r="O124" s="1"/>
       <c r="P124" s="1"/>
       <c r="Q124" s="2"/>
     </row>
-    <row r="125" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>123</v>
+    <row r="125" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>244</v>
       </c>
       <c r="B125" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C125" t="s">
-        <v>251</v>
+        <v>289</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>479</v>
+        <v>256</v>
       </c>
       <c r="E125" s="10" t="s">
-        <v>1263</v>
+        <v>1256</v>
       </c>
       <c r="F125" s="10" t="s">
-        <v>1099</v>
+        <v>1080</v>
       </c>
       <c r="G125" s="10" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="H125" s="10" t="s">
-        <v>1101</v>
+        <v>1093</v>
       </c>
       <c r="I125" t="s">
-        <v>604</v>
+        <v>622</v>
       </c>
       <c r="J125" t="s">
-        <v>605</v>
+        <v>623</v>
       </c>
       <c r="K125" t="s">
-        <v>606</v>
+        <v>624</v>
       </c>
       <c r="L125" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="M125" s="3" t="s">
-        <v>826</v>
-      </c>
-      <c r="N125" s="1" t="s">
-        <v>830</v>
+        <v>612</v>
+      </c>
+      <c r="M125" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="N125" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="O125" s="1"/>
       <c r="P125" s="1"/>
       <c r="Q125" s="2"/>
     </row>
-    <row r="126" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>252</v>
+    <row r="126" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C126" t="s">
-        <v>297</v>
+        <v>247</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>264</v>
+        <v>471</v>
       </c>
       <c r="E126" s="10" t="s">
-        <v>1264</v>
+        <v>1257</v>
       </c>
       <c r="F126" s="10" t="s">
-        <v>1088</v>
+        <v>1080</v>
       </c>
       <c r="G126" s="10" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="H126" s="10" t="s">
-        <v>1101</v>
+        <v>1093</v>
       </c>
       <c r="I126" t="s">
-        <v>630</v>
+        <v>602</v>
       </c>
       <c r="J126" t="s">
-        <v>631</v>
+        <v>603</v>
       </c>
       <c r="K126" t="s">
-        <v>632</v>
+        <v>604</v>
       </c>
       <c r="L126" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="M126" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="N126" s="2" t="s">
-        <v>620</v>
+        <v>657</v>
+      </c>
+      <c r="M126" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="N126" s="1" t="s">
+        <v>752</v>
       </c>
       <c r="O126" s="1"/>
       <c r="P126" s="1"/>
       <c r="Q126" s="2"/>
     </row>
-    <row r="127" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:17" ht="105" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C127" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>479</v>
+        <v>871</v>
       </c>
       <c r="E127" s="10" t="s">
-        <v>1265</v>
+        <v>1258</v>
       </c>
       <c r="F127" s="10" t="s">
-        <v>1088</v>
+        <v>1143</v>
       </c>
       <c r="G127" s="10" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="H127" s="10" t="s">
-        <v>1101</v>
+        <v>1093</v>
       </c>
       <c r="I127" t="s">
+        <v>608</v>
+      </c>
+      <c r="J127" t="s">
+        <v>609</v>
+      </c>
+      <c r="K127" t="s">
         <v>610</v>
       </c>
-      <c r="J127" t="s">
-        <v>611</v>
-      </c>
-      <c r="K127" t="s">
-        <v>612</v>
-      </c>
       <c r="L127" s="2" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="M127" s="3" t="s">
-        <v>752</v>
+        <v>794</v>
       </c>
       <c r="N127" s="1" t="s">
-        <v>760</v>
+        <v>837</v>
       </c>
       <c r="O127" s="1"/>
       <c r="P127" s="1"/>
       <c r="Q127" s="2"/>
     </row>
-    <row r="128" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:17" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C128" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="E128" s="10" t="s">
-        <v>1266</v>
+        <v>1259</v>
       </c>
       <c r="F128" s="10" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
       <c r="G128" s="10" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
       <c r="H128" s="10" t="s">
-        <v>1101</v>
+        <v>1093</v>
       </c>
       <c r="I128" t="s">
-        <v>616</v>
+        <v>573</v>
       </c>
       <c r="J128" t="s">
-        <v>617</v>
+        <v>574</v>
       </c>
       <c r="K128" t="s">
-        <v>618</v>
+        <v>575</v>
       </c>
       <c r="L128" s="2" t="s">
-        <v>667</v>
+        <v>649</v>
       </c>
       <c r="M128" s="3" t="s">
-        <v>802</v>
-      </c>
-      <c r="N128" s="1" t="s">
-        <v>845</v>
+        <v>788</v>
+      </c>
+      <c r="N128" t="s">
+        <v>789</v>
       </c>
       <c r="O128" s="1"/>
       <c r="P128" s="1"/>
       <c r="Q128" s="2"/>
     </row>
-    <row r="129" spans="1:17" ht="375" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>127</v>
+    <row r="129" spans="1:17" ht="150" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>252</v>
       </c>
       <c r="B129" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C129" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>880</v>
+        <v>256</v>
       </c>
       <c r="E129" s="10" t="s">
-        <v>1267</v>
+        <v>1260</v>
       </c>
       <c r="F129" s="10" t="s">
-        <v>1153</v>
+        <v>1066</v>
       </c>
       <c r="G129" s="10" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
       <c r="H129" s="10" t="s">
-        <v>1101</v>
+        <v>1148</v>
       </c>
       <c r="I129" t="s">
-        <v>581</v>
+        <v>625</v>
       </c>
       <c r="J129" t="s">
-        <v>582</v>
+        <v>626</v>
       </c>
       <c r="K129" t="s">
-        <v>583</v>
+        <v>627</v>
       </c>
       <c r="L129" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="M129" s="3" t="s">
-        <v>796</v>
-      </c>
-      <c r="N129" t="s">
-        <v>797</v>
+        <v>612</v>
+      </c>
+      <c r="M129" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="N129" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="O129" s="1"/>
       <c r="P129" s="1"/>
       <c r="Q129" s="2"/>
     </row>
-    <row r="130" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>260</v>
+    <row r="130" spans="1:17" ht="82.5" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C130" t="s">
-        <v>298</v>
+        <v>255</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>264</v>
+        <v>471</v>
       </c>
       <c r="E130" s="10" t="s">
-        <v>1268</v>
+        <v>1261</v>
       </c>
       <c r="F130" s="10" t="s">
-        <v>1074</v>
+        <v>1080</v>
       </c>
       <c r="G130" s="10" t="s">
-        <v>1155</v>
+        <v>1146</v>
       </c>
       <c r="H130" s="10" t="s">
-        <v>1156</v>
+        <v>1093</v>
       </c>
       <c r="I130" t="s">
-        <v>633</v>
+        <v>605</v>
       </c>
       <c r="J130" t="s">
+        <v>606</v>
+      </c>
+      <c r="K130" t="s">
+        <v>607</v>
+      </c>
+      <c r="L130" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="K130" t="s">
-        <v>635</v>
-      </c>
-      <c r="L130" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="M130" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="N130" s="2" t="s">
-        <v>620</v>
+      <c r="M130" s="9" t="s">
+        <v>824</v>
+      </c>
+      <c r="N130" s="1" t="s">
+        <v>825</v>
       </c>
       <c r="O130" s="1"/>
       <c r="P130" s="1"/>
-      <c r="Q130" s="2"/>
-    </row>
-    <row r="131" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>129</v>
-      </c>
-      <c r="B131" t="s">
-        <v>262</v>
-      </c>
-      <c r="C131" t="s">
-        <v>263</v>
-      </c>
-      <c r="D131" s="10" t="s">
-        <v>479</v>
-      </c>
-      <c r="E131" s="10" t="s">
-        <v>1269</v>
-      </c>
-      <c r="F131" s="10" t="s">
-        <v>1088</v>
-      </c>
-      <c r="G131" s="10" t="s">
-        <v>1154</v>
-      </c>
-      <c r="H131" s="10" t="s">
-        <v>1101</v>
-      </c>
-      <c r="I131" t="s">
-        <v>613</v>
-      </c>
-      <c r="J131" t="s">
-        <v>614</v>
-      </c>
-      <c r="K131" t="s">
-        <v>615</v>
-      </c>
-      <c r="L131" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="M131" s="9" t="s">
-        <v>832</v>
-      </c>
-      <c r="N131" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="O131" s="1"/>
-      <c r="P131" s="1"/>
-      <c r="Q131" s="4"/>
+      <c r="Q130" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
